--- a/html/resources/aoiConditions/train1Block15.xlsx
+++ b/html/resources/aoiConditions/train1Block15.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
   </si>
 </sst>
 </file>
